--- a/biology/Zoologie/Formation_d'Arundel/Formation_d'Arundel.xlsx
+++ b/biology/Zoologie/Formation_d'Arundel/Formation_d'Arundel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Formation_d%27Arundel</t>
+          <t>Formation_d'Arundel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La formation d'Arundel est une formation géologique sédimentaire riche en argiles, que l'on trouve dans le Maryland[1], aux États-Unis. Elle date de l'Aptien (Crétacé inférieur). Cette couche géologique a une importance économique du fait de la présence de fer en son sein, mais elle est surtout connue pour ses dinosaures fossilisés. Souvent considérée comme une formation, il pourrait s'agir en fait d'un simple faciès[2].
+La formation d'Arundel est une formation géologique sédimentaire riche en argiles, que l'on trouve dans le Maryland, aux États-Unis. Elle date de l'Aptien (Crétacé inférieur). Cette couche géologique a une importance économique du fait de la présence de fer en son sein, mais elle est surtout connue pour ses dinosaures fossilisés. Souvent considérée comme une formation, il pourrait s'agir en fait d'un simple faciès.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Formation_d%27Arundel</t>
+          <t>Formation_d'Arundel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dinosaures
-Les dinosaures comprennent peut-être le grand théropode Acrocanthosaurus[3],[4]. Les théropodes mal connus Allosaurus (ou « Dryptosaurus ») medius, Creosaurus (ou « Dryptosaurus ») potens (également appelé « Capitalsaurus »), et Coelurus gracilis, l'ornithomimosaurien Coelosaurus affinis, les sauropodes Astrodon et Pleurocoelus, le nodosauridé Priconodon[5], un ceratopsia, et peut-être l'ornithopode Tenontosaurus[2]. Des vertébrés marins ont été retrouvés dans la formation, comme un requin, au moins trois genres de tortues et un crocodilien[2].
-Ptérosaures</t>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dinosaures comprennent peut-être le grand théropode Acrocanthosaurus,. Les théropodes mal connus Allosaurus (ou « Dryptosaurus ») medius, Creosaurus (ou « Dryptosaurus ») potens (également appelé « Capitalsaurus »), et Coelurus gracilis, l'ornithomimosaurien Coelosaurus affinis, les sauropodes Astrodon et Pleurocoelus, le nodosauridé Priconodon, un ceratopsia, et peut-être l'ornithopode Tenontosaurus. Des vertébrés marins ont été retrouvés dans la formation, comme un requin, au moins trois genres de tortues et un crocodilien.
+</t>
         </is>
       </c>
     </row>
